--- a/Mundial_Aux_Data.xlsx
+++ b/Mundial_Aux_Data.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Archivos\Documentos\WILSON\GIT_HUB\Proyecto_MUNDIAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B23918-3B4D-4E3B-862E-614A1FADBCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5D28A4-64BB-479A-84F0-37C0CC85DCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1830" windowWidth="21840" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historico" sheetId="3" r:id="rId1"/>
     <sheet name="Tecnicos" sheetId="2" r:id="rId2"/>
+    <sheet name="Posiciones" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tecnicos!$A$1:$G$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Posiciones!$A$1:$C$218</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tecnicos!$A$1:$G$217</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="273">
   <si>
     <t>Año</t>
   </si>
@@ -489,6 +491,360 @@
   </si>
   <si>
     <t>Day_end</t>
+  </si>
+  <si>
+    <t>Luis Álamos</t>
+  </si>
+  <si>
+    <t>Alf Ramsey</t>
+  </si>
+  <si>
+    <t>José Villalonga</t>
+  </si>
+  <si>
+    <t>Henri Guérin</t>
+  </si>
+  <si>
+    <t>Helmut Schön</t>
+  </si>
+  <si>
+    <t>Edmondo Fabbri</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Otto Glória</t>
+  </si>
+  <si>
+    <t>Corea del Norte</t>
+  </si>
+  <si>
+    <t>Myung Rye Hyun</t>
+  </si>
+  <si>
+    <t>Alfredo Foni</t>
+  </si>
+  <si>
+    <t>Nikolai Morozov</t>
+  </si>
+  <si>
+    <t>Ondino Viera</t>
+  </si>
+  <si>
+    <t>Raymond Goethals</t>
+  </si>
+  <si>
+    <t>Mário Zagallo</t>
+  </si>
+  <si>
+    <t>Stefan Bozhkov</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Emmanuel Scheffer</t>
+  </si>
+  <si>
+    <t>Alemania/Israel</t>
+  </si>
+  <si>
+    <t>Ferruccio Valcareggi</t>
+  </si>
+  <si>
+    <t>Marruecos</t>
+  </si>
+  <si>
+    <t>Blagoje Vidinić</t>
+  </si>
+  <si>
+    <t>Raúl Cárdenas</t>
+  </si>
+  <si>
+    <t>Didi</t>
+  </si>
+  <si>
+    <t>Angelo Niculescu</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Hernán Carrasco</t>
+  </si>
+  <si>
+    <t>Orvar Bergmark</t>
+  </si>
+  <si>
+    <t>Jozef Marko</t>
+  </si>
+  <si>
+    <t>Juan Hohberg</t>
+  </si>
+  <si>
+    <t>Argentina/Uruguay</t>
+  </si>
+  <si>
+    <t>Vladislao Cap</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Rale Rasic</t>
+  </si>
+  <si>
+    <t>Yugoslavia/Australia</t>
+  </si>
+  <si>
+    <t>Hristo Mladenov</t>
+  </si>
+  <si>
+    <t>Alemania Oriental</t>
+  </si>
+  <si>
+    <t>Georg Buschner</t>
+  </si>
+  <si>
+    <t>Haití</t>
+  </si>
+  <si>
+    <t>Antoine Tassy</t>
+  </si>
+  <si>
+    <t>Rinus Michels</t>
+  </si>
+  <si>
+    <t>Kazimierz Górski</t>
+  </si>
+  <si>
+    <t>Willie Ormond</t>
+  </si>
+  <si>
+    <t>Georg Ericson</t>
+  </si>
+  <si>
+    <t>Roberto Porta</t>
+  </si>
+  <si>
+    <t>Miljan Miljanić</t>
+  </si>
+  <si>
+    <t>Zaire</t>
+  </si>
+  <si>
+    <t>César Luis Menotti</t>
+  </si>
+  <si>
+    <t>Helmut Senekowitsch</t>
+  </si>
+  <si>
+    <t>Cláudio Coutinho</t>
+  </si>
+  <si>
+    <t>Ladislao Kubala</t>
+  </si>
+  <si>
+    <t>Hungría/España</t>
+  </si>
+  <si>
+    <t>Michel Hidalgo</t>
+  </si>
+  <si>
+    <t>Irán</t>
+  </si>
+  <si>
+    <t>Heshmat Mohajerani</t>
+  </si>
+  <si>
+    <t>Enzo Bearzot</t>
+  </si>
+  <si>
+    <t>José Roca</t>
+  </si>
+  <si>
+    <t>España/México</t>
+  </si>
+  <si>
+    <t>Ernst Happel</t>
+  </si>
+  <si>
+    <t>Marcos Calderón</t>
+  </si>
+  <si>
+    <t>Jacek Gmoch</t>
+  </si>
+  <si>
+    <t>Alistair MacLeod</t>
+  </si>
+  <si>
+    <t>Túnez</t>
+  </si>
+  <si>
+    <t>Abdelmajid Chetali</t>
+  </si>
+  <si>
+    <t>Argelia</t>
+  </si>
+  <si>
+    <t>Rachid Mekhloufi</t>
+  </si>
+  <si>
+    <t>Georg Schmidt</t>
+  </si>
+  <si>
+    <t>Guy Thys</t>
+  </si>
+  <si>
+    <t>Telê Santana</t>
+  </si>
+  <si>
+    <t>Luis Alberto Santibañez</t>
+  </si>
+  <si>
+    <t>Camerún</t>
+  </si>
+  <si>
+    <t>Jean Vincent</t>
+  </si>
+  <si>
+    <t>Ron Greenwood</t>
+  </si>
+  <si>
+    <t>José Santamaría</t>
+  </si>
+  <si>
+    <t>Uruguay/España</t>
+  </si>
+  <si>
+    <t>Jupp Derwall</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>José de la Paz Herrera</t>
+  </si>
+  <si>
+    <t>Kálmán Mészöly</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Carlos Alberto Parreira</t>
+  </si>
+  <si>
+    <t>Billy Bingham</t>
+  </si>
+  <si>
+    <t>Nueva Zelanda</t>
+  </si>
+  <si>
+    <t>John Adshead</t>
+  </si>
+  <si>
+    <t>Inglaterra/Nueva Zelanda</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Antoni Piechniczek</t>
+  </si>
+  <si>
+    <t>Jock Stein</t>
+  </si>
+  <si>
+    <t>Mauricio Rodríguez</t>
+  </si>
+  <si>
+    <t>Jozef Vengloš</t>
+  </si>
+  <si>
+    <t>Konstantin Beskov</t>
+  </si>
+  <si>
+    <t>Rabah Saadane</t>
+  </si>
+  <si>
+    <t>Carlos Bilardo</t>
+  </si>
+  <si>
+    <t>Ivan Vutsov</t>
+  </si>
+  <si>
+    <t>Canadá</t>
+  </si>
+  <si>
+    <t>Tony Waiters</t>
+  </si>
+  <si>
+    <t>Inglaterra/Canadá</t>
+  </si>
+  <si>
+    <t>Dinamarca</t>
+  </si>
+  <si>
+    <t>Sepp Piontek</t>
+  </si>
+  <si>
+    <t>Bobby Robson</t>
+  </si>
+  <si>
+    <t>Miguel Muñoz</t>
+  </si>
+  <si>
+    <t>Henri Michel</t>
+  </si>
+  <si>
+    <t>Franz Beckenbauer</t>
+  </si>
+  <si>
+    <t>György Mezey</t>
+  </si>
+  <si>
+    <t>Irak</t>
+  </si>
+  <si>
+    <t>Evaristo</t>
+  </si>
+  <si>
+    <t>Kim Jung-Nam</t>
+  </si>
+  <si>
+    <t>José Faria</t>
+  </si>
+  <si>
+    <t>Brasil/Marruecos</t>
+  </si>
+  <si>
+    <t>Bora Milutinović</t>
+  </si>
+  <si>
+    <t>Yugoslavia/México</t>
+  </si>
+  <si>
+    <t>Cayetano Ré</t>
+  </si>
+  <si>
+    <t>José Torres</t>
+  </si>
+  <si>
+    <t>Alex Ferguson</t>
+  </si>
+  <si>
+    <t>Valeriy Lobanovskyi</t>
+  </si>
+  <si>
+    <t>Ucrania/Soviética</t>
+  </si>
+  <si>
+    <t>Omar Borrás</t>
+  </si>
+  <si>
+    <t>Puesto_obtenido</t>
   </si>
 </sst>
 </file>
@@ -841,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21C707F-5CA6-409E-A3AC-0FB69B83C3A2}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,10 +1748,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09A1D70-B109-41E7-8341-B92884774467}">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,7 +2230,7 @@
         <v>1934</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>37</v>
@@ -1966,7 +2322,7 @@
         <v>1934</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>45</v>
@@ -2173,7 +2529,7 @@
         <v>1938</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>58</v>
@@ -2334,7 +2690,7 @@
         <v>1938</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>115</v>
@@ -2840,7 +3196,7 @@
         <v>1954</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>58</v>
@@ -3208,7 +3564,7 @@
         <v>1958</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>58</v>
@@ -3822,6 +4178,5000 @@
       </c>
       <c r="G105" s="2">
         <v>1920</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>1966</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" s="2">
+        <v>22</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G106" s="2">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>1966</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="2">
+        <v>20</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G107" s="2">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>1966</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E108" s="2">
+        <v>9</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G108" s="2">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>1966</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="2">
+        <v>25</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G109" s="2">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>1966</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E110" s="2">
+        <v>22</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G110" s="2">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>1966</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E111" s="2">
+        <v>12</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G111" s="2">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>1966</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" s="2">
+        <v>27</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G112" s="2">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>1966</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E113" s="2">
+        <v>15</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G113" s="2">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>1966</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E114" s="2">
+        <v>19</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G114" s="2">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>1966</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E115" s="2">
+        <v>16</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G115" s="2">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>1966</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" s="2">
+        <v>31</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G116" s="2">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>1966</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="2">
+        <v>9</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G117" s="2">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>1966</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E118" s="2">
+        <v>14</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G118" s="2">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>1966</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E119" s="2">
+        <v>20</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G119" s="2">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>1966</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E120" s="2">
+        <v>28</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G120" s="2">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>1966</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E121" s="2">
+        <v>10</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G121" s="2">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>1970</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" s="2">
+        <v>7</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G122" s="2">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>1970</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="2">
+        <v>9</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G123" s="2">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>1970</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E124" s="2">
+        <v>20</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G124" s="2">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>1970</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E125" s="2">
+        <v>22</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G125" s="2">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>1970</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E126" s="2">
+        <v>15</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G126" s="2">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>1970</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E127" s="2">
+        <v>11</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G127" s="2">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>1970</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E128" s="2">
+        <v>12</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G128" s="2">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>1970</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E129" s="2">
+        <v>11</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G129" s="2">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>1970</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" s="2">
+        <v>30</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G130" s="2">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>1970</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="2">
+        <v>8</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G131" s="2">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>1970</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132" s="2">
+        <v>1</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G132" s="2">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>1970</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E133" s="2">
+        <v>29</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G133" s="2">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>1970</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E134" s="2">
+        <v>16</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G134" s="2">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>1970</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E135" s="2">
+        <v>25</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G135" s="2">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>1970</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E136" s="2">
+        <v>17</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G136" s="2">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>1970</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E137" s="2">
+        <v>19</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G137" s="2">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>1974</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E138" s="2">
+        <v>5</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G138" s="2">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>1974</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E139" s="2">
+        <v>26</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G139" s="2">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>1974</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" s="2">
+        <v>9</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G140" s="2">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>1974</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E141" s="2">
+        <v>7</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G141" s="2">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>1974</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142" s="2">
+        <v>25</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G142" s="2">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>1974</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E143" s="2">
+        <v>15</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G143" s="2">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>1974</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E144" s="2">
+        <v>26</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G144" s="2">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>1974</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E145" s="2">
+        <v>13</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G145" s="2">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>1974</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E146" s="2">
+        <v>12</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G146" s="2">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>1974</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E147" s="2">
+        <v>9</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G147" s="2">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>1974</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>2</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G148" s="2">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>1974</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E149" s="2">
+        <v>23</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G149" s="2">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>1974</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E150" s="2">
+        <v>18</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G150" s="2">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>1974</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E151" s="2">
+        <v>7</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G151" s="2">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>1974</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E152" s="2">
+        <v>4</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G152" s="2">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>1974</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E153" s="2">
+        <v>11</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G153" s="2">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>1978</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E154" s="2">
+        <v>5</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G154" s="2">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>1978</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E155" s="2">
+        <v>22</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G155" s="2">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>1978</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" s="2">
+        <v>5</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G156" s="2">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>1978</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E157" s="2">
+        <v>10</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G157" s="2">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>1978</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158" s="2">
+        <v>22</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G158" s="2">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>1978</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E159" s="2">
+        <v>15</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G159" s="2">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>1978</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E160" s="2">
+        <v>19</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G160" s="2">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>1978</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E161" s="2">
+        <v>11</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G161" s="2">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>1978</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E162" s="2">
+        <v>26</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G162" s="2">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>1978</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E163" s="2">
+        <v>27</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G163" s="2">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>1978</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E164" s="2">
+        <v>29</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G164" s="2">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>1978</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E165" s="2">
+        <v>11</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G165" s="2">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>1978</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E166" s="2">
+        <v>13</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G166" s="2">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>1978</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E167" s="2">
+        <v>26</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G167" s="2">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>1978</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E168" s="2">
+        <v>18</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G168" s="2">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>1978</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E169" s="2">
+        <v>4</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G169" s="2">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E170" s="2">
+        <v>12</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G170" s="2">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E171" s="2">
+        <v>5</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G171" s="2">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E172" s="2">
+        <v>22</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G172" s="2">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173" s="2">
+        <v>6</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G173" s="2">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E174" s="2">
+        <v>26</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G174" s="2">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" s="2">
+        <v>7</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G175" s="2">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E176" s="2">
+        <v>29</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G176" s="2">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E177" s="2">
+        <v>11</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G177" s="2">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E178" s="2">
+        <v>31</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G178" s="2">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179" s="2">
+        <v>22</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G179" s="2">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E180" s="2">
+        <v>10</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G180" s="2">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E181" s="2">
+        <v>21</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G181" s="2">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E182" s="2">
+        <v>16</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G182" s="2">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E183" s="2">
+        <v>26</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G183" s="2">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184" s="2">
+        <v>27</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G184" s="2">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E185" s="2">
+        <v>5</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G185" s="2">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E186" s="2">
+        <v>27</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G186" s="2">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E187" s="2">
+        <v>2</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G187" s="2">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E188" s="2">
+        <v>3</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G188" s="2">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E189" s="2">
+        <v>5</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G189" s="2">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E190" s="2">
+        <v>12</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G190" s="2">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E191" s="2">
+        <v>18</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G191" s="2">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E192" s="2">
+        <v>18</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G192" s="2">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E193" s="2">
+        <v>4</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G193" s="2">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E194" s="2">
+        <v>3</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G194" s="2">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E195" s="2">
+        <v>16</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G195" s="2">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E196" s="2">
+        <v>6</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G196" s="2">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E197" s="2">
+        <v>26</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G197" s="2">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E198" s="2">
+        <v>14</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G198" s="2">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E199" s="2">
+        <v>2</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G199" s="2">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E200" s="2">
+        <v>5</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G200" s="2">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E201" s="2">
+        <v>18</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G201" s="2">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E202" s="2">
+        <v>19</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G202" s="2">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203" s="2">
+        <v>28</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G203" s="2">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E204" s="2">
+        <v>11</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G204" s="2">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E205" s="2">
+        <v>7</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G205" s="2">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E206" s="2">
+        <v>22</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G206" s="2">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E207" s="2">
+        <v>26</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G207" s="2">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E208" s="2">
+        <v>28</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G208" s="2">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E209" s="2">
+        <v>3</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G209" s="2">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E210" s="2">
+        <v>7</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G210" s="2">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E211" s="2">
+        <v>5</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G211" s="2">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E212" s="2">
+        <v>7</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G212" s="2">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E213" s="2">
+        <v>3</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G213" s="2">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E214" s="2">
+        <v>8</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G214" s="2">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E215" s="2">
+        <v>31</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G215" s="2">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E216" s="2">
+        <v>6</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G216" s="2">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E217" s="2">
+        <v>15</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G217" s="2">
+        <v>1929</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198B3B18-2F01-4CF7-B8F8-89E6BA4EEE79}">
+  <dimension ref="A1:C218"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1930</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1930</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1930</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1930</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1930</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1930</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1930</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1930</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1930</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1930</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1930</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1930</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1930</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1934</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1934</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1934</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1934</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1934</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1934</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1934</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1934</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1934</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1934</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1934</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1934</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1934</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1934</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1934</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1934</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1938</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1938</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1938</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1938</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1938</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1938</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1938</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1938</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1938</v>
+      </c>
+      <c r="B39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1938</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1938</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1938</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1938</v>
+      </c>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1938</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1938</v>
+      </c>
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1950</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1950</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1950</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1950</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1950</v>
+      </c>
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1950</v>
+      </c>
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1950</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1950</v>
+      </c>
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1950</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1950</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1950</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1950</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1950</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1954</v>
+      </c>
+      <c r="B59" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1954</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1954</v>
+      </c>
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1954</v>
+      </c>
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1954</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1954</v>
+      </c>
+      <c r="B64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1954</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1954</v>
+      </c>
+      <c r="B66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1954</v>
+      </c>
+      <c r="B67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1954</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1954</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1954</v>
+      </c>
+      <c r="B70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1954</v>
+      </c>
+      <c r="B71" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1954</v>
+      </c>
+      <c r="B72" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1954</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1954</v>
+      </c>
+      <c r="B74" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1958</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1958</v>
+      </c>
+      <c r="B76" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1958</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1958</v>
+      </c>
+      <c r="B78" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1958</v>
+      </c>
+      <c r="B79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1958</v>
+      </c>
+      <c r="B80" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1958</v>
+      </c>
+      <c r="B81" t="s">
+        <v>97</v>
+      </c>
+      <c r="C81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1958</v>
+      </c>
+      <c r="B82" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1958</v>
+      </c>
+      <c r="B83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1958</v>
+      </c>
+      <c r="B84" t="s">
+        <v>71</v>
+      </c>
+      <c r="C84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1958</v>
+      </c>
+      <c r="B85" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1958</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1958</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1958</v>
+      </c>
+      <c r="B88" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1958</v>
+      </c>
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1958</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1962</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1962</v>
+      </c>
+      <c r="B92" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1962</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1962</v>
+      </c>
+      <c r="B94" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1962</v>
+      </c>
+      <c r="B95" t="s">
+        <v>38</v>
+      </c>
+      <c r="C95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1962</v>
+      </c>
+      <c r="B96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1962</v>
+      </c>
+      <c r="B97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1962</v>
+      </c>
+      <c r="B98" t="s">
+        <v>71</v>
+      </c>
+      <c r="C98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1962</v>
+      </c>
+      <c r="B99" t="s">
+        <v>40</v>
+      </c>
+      <c r="C99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1962</v>
+      </c>
+      <c r="B100" t="s">
+        <v>34</v>
+      </c>
+      <c r="C100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1962</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1962</v>
+      </c>
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1962</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1962</v>
+      </c>
+      <c r="B104" t="s">
+        <v>46</v>
+      </c>
+      <c r="C104">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1962</v>
+      </c>
+      <c r="B105" t="s">
+        <v>103</v>
+      </c>
+      <c r="C105">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1962</v>
+      </c>
+      <c r="B106" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1966</v>
+      </c>
+      <c r="B107" t="s">
+        <v>71</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1966</v>
+      </c>
+      <c r="B108" t="s">
+        <v>107</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1966</v>
+      </c>
+      <c r="B109" t="s">
+        <v>161</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1966</v>
+      </c>
+      <c r="B110" t="s">
+        <v>101</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1966</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1966</v>
+      </c>
+      <c r="B112" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1966</v>
+      </c>
+      <c r="B113" t="s">
+        <v>38</v>
+      </c>
+      <c r="C113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1966</v>
+      </c>
+      <c r="B114" t="s">
+        <v>163</v>
+      </c>
+      <c r="C114">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1966</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1966</v>
+      </c>
+      <c r="B116" t="s">
+        <v>34</v>
+      </c>
+      <c r="C116">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1966</v>
+      </c>
+      <c r="B117" t="s">
+        <v>40</v>
+      </c>
+      <c r="C117">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1966</v>
+      </c>
+      <c r="B118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1966</v>
+      </c>
+      <c r="B119" t="s">
+        <v>103</v>
+      </c>
+      <c r="C119">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1966</v>
+      </c>
+      <c r="B120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1966</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1966</v>
+      </c>
+      <c r="B122" t="s">
+        <v>46</v>
+      </c>
+      <c r="C122">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1970</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1970</v>
+      </c>
+      <c r="B124" t="s">
+        <v>40</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1970</v>
+      </c>
+      <c r="B125" t="s">
+        <v>107</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1970</v>
+      </c>
+      <c r="B126" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1970</v>
+      </c>
+      <c r="B127" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1970</v>
+      </c>
+      <c r="B128" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1970</v>
+      </c>
+      <c r="B129" t="s">
+        <v>101</v>
+      </c>
+      <c r="C129">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1970</v>
+      </c>
+      <c r="B130" t="s">
+        <v>71</v>
+      </c>
+      <c r="C130">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1970</v>
+      </c>
+      <c r="B131" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1970</v>
+      </c>
+      <c r="B132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C132">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1970</v>
+      </c>
+      <c r="B133" t="s">
+        <v>171</v>
+      </c>
+      <c r="C133">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1970</v>
+      </c>
+      <c r="B134" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1970</v>
+      </c>
+      <c r="B135" t="s">
+        <v>103</v>
+      </c>
+      <c r="C135">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1970</v>
+      </c>
+      <c r="B136" t="s">
+        <v>50</v>
+      </c>
+      <c r="C136">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1970</v>
+      </c>
+      <c r="B137" t="s">
+        <v>175</v>
+      </c>
+      <c r="C137">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1970</v>
+      </c>
+      <c r="B138" t="s">
+        <v>180</v>
+      </c>
+      <c r="C138">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1974</v>
+      </c>
+      <c r="B139" t="s">
+        <v>107</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1974</v>
+      </c>
+      <c r="B140" t="s">
+        <v>42</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1974</v>
+      </c>
+      <c r="B141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>1974</v>
+      </c>
+      <c r="B142" t="s">
+        <v>64</v>
+      </c>
+      <c r="C142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1974</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1974</v>
+      </c>
+      <c r="B144" t="s">
+        <v>26</v>
+      </c>
+      <c r="C144">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1974</v>
+      </c>
+      <c r="B145" t="s">
+        <v>191</v>
+      </c>
+      <c r="C145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1974</v>
+      </c>
+      <c r="B146" t="s">
+        <v>48</v>
+      </c>
+      <c r="C146">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1974</v>
+      </c>
+      <c r="B147" t="s">
+        <v>187</v>
+      </c>
+      <c r="C147">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1974</v>
+      </c>
+      <c r="B148" t="s">
+        <v>103</v>
+      </c>
+      <c r="C148">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1974</v>
+      </c>
+      <c r="B149" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1974</v>
+      </c>
+      <c r="B150" t="s">
+        <v>193</v>
+      </c>
+      <c r="C150">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1974</v>
+      </c>
+      <c r="B151" t="s">
+        <v>40</v>
+      </c>
+      <c r="C151">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1974</v>
+      </c>
+      <c r="B152" t="s">
+        <v>22</v>
+      </c>
+      <c r="C152">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1974</v>
+      </c>
+      <c r="B153" t="s">
+        <v>201</v>
+      </c>
+      <c r="C153">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1974</v>
+      </c>
+      <c r="B154" t="s">
+        <v>89</v>
+      </c>
+      <c r="C154">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1978</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1978</v>
+      </c>
+      <c r="B156" t="s">
+        <v>42</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1978</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1978</v>
+      </c>
+      <c r="B158" t="s">
+        <v>40</v>
+      </c>
+      <c r="C158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1978</v>
+      </c>
+      <c r="B159" t="s">
+        <v>29</v>
+      </c>
+      <c r="C159">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1978</v>
+      </c>
+      <c r="B160" t="s">
+        <v>34</v>
+      </c>
+      <c r="C160">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1978</v>
+      </c>
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1978</v>
+      </c>
+      <c r="B162" t="s">
+        <v>107</v>
+      </c>
+      <c r="C162">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1978</v>
+      </c>
+      <c r="B163" t="s">
+        <v>38</v>
+      </c>
+      <c r="C163">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1978</v>
+      </c>
+      <c r="B164" t="s">
+        <v>208</v>
+      </c>
+      <c r="C164">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1978</v>
+      </c>
+      <c r="B165" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1978</v>
+      </c>
+      <c r="B166" t="s">
+        <v>18</v>
+      </c>
+      <c r="C166">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1978</v>
+      </c>
+      <c r="B167" t="s">
+        <v>64</v>
+      </c>
+      <c r="C167">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1978</v>
+      </c>
+      <c r="B168" t="s">
+        <v>89</v>
+      </c>
+      <c r="C168">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1978</v>
+      </c>
+      <c r="B169" t="s">
+        <v>48</v>
+      </c>
+      <c r="C169">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1978</v>
+      </c>
+      <c r="B170" t="s">
+        <v>217</v>
+      </c>
+      <c r="C170">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1982</v>
+      </c>
+      <c r="B171" t="s">
+        <v>40</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1982</v>
+      </c>
+      <c r="B172" t="s">
+        <v>107</v>
+      </c>
+      <c r="C172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1982</v>
+      </c>
+      <c r="B173" t="s">
+        <v>64</v>
+      </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1982</v>
+      </c>
+      <c r="B174" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1982</v>
+      </c>
+      <c r="B175" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1982</v>
+      </c>
+      <c r="B176" t="s">
+        <v>29</v>
+      </c>
+      <c r="C176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1982</v>
+      </c>
+      <c r="B177" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1982</v>
+      </c>
+      <c r="B178" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1982</v>
+      </c>
+      <c r="B179" t="s">
+        <v>10</v>
+      </c>
+      <c r="C179">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1982</v>
+      </c>
+      <c r="B180" t="s">
+        <v>225</v>
+      </c>
+      <c r="C180">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1982</v>
+      </c>
+      <c r="B181" t="s">
+        <v>71</v>
+      </c>
+      <c r="C181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1982</v>
+      </c>
+      <c r="B182" t="s">
+        <v>34</v>
+      </c>
+      <c r="C182">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1982</v>
+      </c>
+      <c r="B183" t="s">
+        <v>231</v>
+      </c>
+      <c r="C183">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1982</v>
+      </c>
+      <c r="B184" t="s">
+        <v>38</v>
+      </c>
+      <c r="C184">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1982</v>
+      </c>
+      <c r="B185" t="s">
+        <v>234</v>
+      </c>
+      <c r="C185">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1982</v>
+      </c>
+      <c r="B186" t="s">
+        <v>97</v>
+      </c>
+      <c r="C186">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1982</v>
+      </c>
+      <c r="B187" t="s">
+        <v>237</v>
+      </c>
+      <c r="C187">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1982</v>
+      </c>
+      <c r="B188" t="s">
+        <v>18</v>
+      </c>
+      <c r="C188">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1982</v>
+      </c>
+      <c r="B189" t="s">
+        <v>89</v>
+      </c>
+      <c r="C189">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1982</v>
+      </c>
+      <c r="B190" t="s">
+        <v>180</v>
+      </c>
+      <c r="C190">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1982</v>
+      </c>
+      <c r="B191" t="s">
+        <v>50</v>
+      </c>
+      <c r="C191">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1982</v>
+      </c>
+      <c r="B192" t="s">
+        <v>101</v>
+      </c>
+      <c r="C192">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1982</v>
+      </c>
+      <c r="B193" t="s">
+        <v>26</v>
+      </c>
+      <c r="C193">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1982</v>
+      </c>
+      <c r="B194" t="s">
+        <v>219</v>
+      </c>
+      <c r="C194">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>1986</v>
+      </c>
+      <c r="B195" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>1986</v>
+      </c>
+      <c r="B196" t="s">
+        <v>107</v>
+      </c>
+      <c r="C196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>1986</v>
+      </c>
+      <c r="B197" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>1986</v>
+      </c>
+      <c r="B198" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>1986</v>
+      </c>
+      <c r="B199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>1986</v>
+      </c>
+      <c r="B200" t="s">
+        <v>71</v>
+      </c>
+      <c r="C200">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>1986</v>
+      </c>
+      <c r="B201" t="s">
+        <v>34</v>
+      </c>
+      <c r="C201">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>1986</v>
+      </c>
+      <c r="B202" t="s">
+        <v>40</v>
+      </c>
+      <c r="C202">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>1986</v>
+      </c>
+      <c r="B203" t="s">
+        <v>14</v>
+      </c>
+      <c r="C203">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>1986</v>
+      </c>
+      <c r="B204" t="s">
+        <v>16</v>
+      </c>
+      <c r="C204">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>1986</v>
+      </c>
+      <c r="B205" t="s">
+        <v>64</v>
+      </c>
+      <c r="C205">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>1986</v>
+      </c>
+      <c r="B206" t="s">
+        <v>161</v>
+      </c>
+      <c r="C206">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1986</v>
+      </c>
+      <c r="B207" t="s">
+        <v>101</v>
+      </c>
+      <c r="C207">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1986</v>
+      </c>
+      <c r="B208" t="s">
+        <v>22</v>
+      </c>
+      <c r="C208">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1986</v>
+      </c>
+      <c r="B209" t="s">
+        <v>219</v>
+      </c>
+      <c r="C209">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>1986</v>
+      </c>
+      <c r="B210" t="s">
+        <v>103</v>
+      </c>
+      <c r="C210">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>1986</v>
+      </c>
+      <c r="B211" t="s">
+        <v>249</v>
+      </c>
+      <c r="C211">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>1986</v>
+      </c>
+      <c r="B212" t="s">
+        <v>252</v>
+      </c>
+      <c r="C212">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>1986</v>
+      </c>
+      <c r="B213" t="s">
+        <v>38</v>
+      </c>
+      <c r="C213">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>1986</v>
+      </c>
+      <c r="B214" t="s">
+        <v>259</v>
+      </c>
+      <c r="C214">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>1986</v>
+      </c>
+      <c r="B215" t="s">
+        <v>88</v>
+      </c>
+      <c r="C215">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1986</v>
+      </c>
+      <c r="B216" t="s">
+        <v>175</v>
+      </c>
+      <c r="C216">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>1986</v>
+      </c>
+      <c r="B217" t="s">
+        <v>97</v>
+      </c>
+      <c r="C217">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>1986</v>
+      </c>
+      <c r="B218" t="s">
+        <v>89</v>
+      </c>
+      <c r="C218">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
